--- a/Source_Data/Company_and_ESG_KW/Company_and_ESG_2019.xlsx
+++ b/Source_Data/Company_and_ESG_KW/Company_and_ESG_2019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="491">
   <si>
     <t>Published</t>
   </si>
@@ -125,6 +125,93 @@
     <t>https://money.kompas.com/read/2019/10/09/130000426/program-bedah-rumah-untuk-pensiunan-telkom</t>
   </si>
   <si>
+    <t>2019-05-26T12:34:05+01:00</t>
+  </si>
+  <si>
+    <t>Sampoerna</t>
+  </si>
+  <si>
+    <t>Dua Pelajar Binaan CSR Semen Padang di Sampoerna Academy Boarding School Ikuti Wisuda Kelulusan</t>
+  </si>
+  <si>
+    <t>http://sp.klikpositif.com/baca/51505/dua-pelajar-binaan-csr-semen-padang-di-sampoerna-academy-boarding-school-ikuti-wisuda-kelulusan</t>
+  </si>
+  <si>
+    <t>sp.klikpositif.com</t>
+  </si>
+  <si>
+    <t>2019-10-15T09:45:38+01:00</t>
+  </si>
+  <si>
+    <t>Indosat</t>
+  </si>
+  <si>
+    <t>Gandeng Facebook, Indosat Ingin Tingkatkan Adopsi Internet di Indonesia | Teknologi - Bisnis.com</t>
+  </si>
+  <si>
+    <t>https://teknologi.bisnis.com/read/20191015/101/1159299/gandeng-facebook-indosat-ingin-tingkatkan-adopsi-internet-di-indonesia</t>
+  </si>
+  <si>
+    <t>teknologi.bisnis.com</t>
+  </si>
+  <si>
+    <t>2019-09-16T16:01:39+01:00</t>
+  </si>
+  <si>
+    <t>IDCamp Roadshow ke Unila, Bagikan Beasiswa Coding Bersertifikat Global | Radarlampung.co.id</t>
+  </si>
+  <si>
+    <t>https://radarlampung.co.id/2019/09/16/idcamp-roadshow-ke-unila-bagikan-beasiswa-coding-bersertifikat-global/</t>
+  </si>
+  <si>
+    <t>radarlampung.co.id</t>
+  </si>
+  <si>
+    <t>2019-10-23T14:23:42+01:00</t>
+  </si>
+  <si>
+    <t>Indosat Ooredoo Pendaftaran Buka HackData</t>
+  </si>
+  <si>
+    <t>https://investor.id/it-and-telecommunication/indosat-ooredoo-pendaftaran-buka-hackdata</t>
+  </si>
+  <si>
+    <t>investor.id</t>
+  </si>
+  <si>
+    <t>2019-10-24T12:20:48+01:00</t>
+  </si>
+  <si>
+    <t>Indosat Ooredoo Buka Pendaftaran HackData</t>
+  </si>
+  <si>
+    <t>https://investor.id/it-and-telecommunication/indosat-ooredoo-buka-pendaftaran-hackdata</t>
+  </si>
+  <si>
+    <t>2019-08-06T11:54:32+01:00</t>
+  </si>
+  <si>
+    <t>IDCamp, Aksi Nyata Indosat Ooredoo Cetak 10.000 Developer Kelas Dunia Halaman all - Kompas.com</t>
+  </si>
+  <si>
+    <t>https://biz.kompas.com/read/2019/08/06/175227928/idcamp-aksi-nyata-indosat-ooredoo-cetak-10000-developer-kelas-dunia</t>
+  </si>
+  <si>
+    <t>biz.kompas.com</t>
+  </si>
+  <si>
+    <t>2019-08-22T02:04:38+01:00</t>
+  </si>
+  <si>
+    <t>Cetak Developer Muda, Indosat Ooredoo Gelar IDCamp</t>
+  </si>
+  <si>
+    <t>https://technologue.id/cetak-developer-muda-indosat-ooredoo-gelar-idcamp/amp/</t>
+  </si>
+  <si>
+    <t>technologue.id</t>
+  </si>
+  <si>
     <t>2019-07-29T06:41:07+01:00</t>
   </si>
   <si>
@@ -719,9 +806,6 @@
     <t>https://biz.kompas.com/read/2019/06/19/100344728/dukung-pemerataan-pendidikan-bri-gelar-beasiswa-indonesia-cerdas</t>
   </si>
   <si>
-    <t>biz.kompas.com</t>
-  </si>
-  <si>
     <t>2019-08-09T03:28:54+01:00</t>
   </si>
   <si>
@@ -878,6 +962,15 @@
     <t>suaramerdeka.com</t>
   </si>
   <si>
+    <t>2019-11-21T03:39:04Z</t>
+  </si>
+  <si>
+    <t>BRI Dorong 10.000 UMKM Naik Kelas – RADAR DEPOK | Koran Depok Sesungguhnya</t>
+  </si>
+  <si>
+    <t>http://radardepok.com/2019/11/bri-dorong-10-000-umkm-naik-kelas/</t>
+  </si>
+  <si>
     <t>2019-11-21T08:42:16Z</t>
   </si>
   <si>
@@ -887,18 +980,6 @@
     <t>https://radarlampung.co.id/2019/11/21/bri-peduli-serahkan-csr-ambulans-ke-rsia-amc-metro/</t>
   </si>
   <si>
-    <t>radarlampung.co.id</t>
-  </si>
-  <si>
-    <t>2019-11-21T03:39:04Z</t>
-  </si>
-  <si>
-    <t>BRI Dorong 10.000 UMKM Naik Kelas – RADAR DEPOK | Koran Depok Sesungguhnya</t>
-  </si>
-  <si>
-    <t>http://radardepok.com/2019/11/bri-dorong-10-000-umkm-naik-kelas/</t>
-  </si>
-  <si>
     <t>2019-12-06T00:12:04Z</t>
   </si>
   <si>
@@ -1193,6 +1274,18 @@
     <t>https://radarlampung.co.id/2019/09/11/daihatsu-berbagi-kebahagiaan-bersama-penderita-thalasemia/</t>
   </si>
   <si>
+    <t>2019-09-22T08:34:44+01:00</t>
+  </si>
+  <si>
+    <t>Lagi, Astra Agro Raih Penghargaan Nusantara CSR Award 2019 | Agrofarm</t>
+  </si>
+  <si>
+    <t>http://www.agrofarm.co.id/2019/09/lagi-astra-agro-raih-penghargaan-nusantara-csr-award-2019/</t>
+  </si>
+  <si>
+    <t>agrofarm.co.id</t>
+  </si>
+  <si>
     <t>2019-09-22T16:32:41+01:00</t>
   </si>
   <si>
@@ -1205,18 +1298,6 @@
     <t>ekonomi.inilah.com</t>
   </si>
   <si>
-    <t>2019-09-22T08:34:44+01:00</t>
-  </si>
-  <si>
-    <t>Lagi, Astra Agro Raih Penghargaan Nusantara CSR Award 2019 | Agrofarm</t>
-  </si>
-  <si>
-    <t>http://www.agrofarm.co.id/2019/09/lagi-astra-agro-raih-penghargaan-nusantara-csr-award-2019/</t>
-  </si>
-  <si>
-    <t>agrofarm.co.id</t>
-  </si>
-  <si>
     <t>2019-10-09T10:52:37+01:00</t>
   </si>
   <si>
@@ -1404,120 +1485,6 @@
   </si>
   <si>
     <t>makassar.sindonews.com</t>
-  </si>
-  <si>
-    <t>2019-10-06T14:29:00+01:00</t>
-  </si>
-  <si>
-    <t>BNI</t>
-  </si>
-  <si>
-    <t>BNI Serahkan 2 Unit Mobil Ambulance ke Kodam II/Sriwijaya | Detik Sumsel</t>
-  </si>
-  <si>
-    <t>https://www.detiksumsel.com/bni-serahkan-2-unit-mobil-ambulance-ke-kodam-ii-sriwijaya/</t>
-  </si>
-  <si>
-    <t>2019-05-02T03:53:46+01:00</t>
-  </si>
-  <si>
-    <t>Bantu Pasien Osteoarthritis Tidak Mampu, BNI Life Menyalurkan 101 Tongkat Orthopedic - Tribunnews.com</t>
-  </si>
-  <si>
-    <t>http://www.tribunnews.com/bisnis/2019/05/02/bantu-pasien-osteoarthritis-tidak-mampu-bni-life-menyalurkan-101-tongkat-orthopedic</t>
-  </si>
-  <si>
-    <t>tribunnews.com</t>
-  </si>
-  <si>
-    <t>2019-05-28T03:38:01+01:00</t>
-  </si>
-  <si>
-    <t>BNI Life Berbagi Kebahagiaan Bersama 200 Anak Yatim, Piatu &amp; Dhuafa - Tribunnews.com</t>
-  </si>
-  <si>
-    <t>http://www.tribunnews.com/bisnis/2019/05/28/bni-life-berbagi-kebahagiaan-bersama-200-anak-yatim-piatu-dhuafa</t>
-  </si>
-  <si>
-    <t>2019-10-06T14:15:48+01:00</t>
-  </si>
-  <si>
-    <t>BNI Serahkan 2 Unit Mobil Ambulance ke Kodam II/Sriwijaya</t>
-  </si>
-  <si>
-    <t>https://sumeks.co/bni-serahkan-2-unit-mobil-ambulance-ke-kodam-ii-sriwijaya/</t>
-  </si>
-  <si>
-    <t>sumeks.co</t>
-  </si>
-  <si>
-    <t>2019-10-22T11:47:54+01:00</t>
-  </si>
-  <si>
-    <t>BNI Serahkan Dua Mobil Ramah Lingkungan ke RSUP Dr Kariadi</t>
-  </si>
-  <si>
-    <t>https://www.suaramerdeka.com/news/baca/203749/bni-serahkan-dua-mobil-ramah-lingkungan-ke-rsup-dr-kariadi</t>
-  </si>
-  <si>
-    <t>2019-11-21T02:15:49Z</t>
-  </si>
-  <si>
-    <t>Perlancar Usaha Laundry, Warga Dolly Terima CSR Mobil Box dari Bank BNI - Tribun Jatim</t>
-  </si>
-  <si>
-    <t>https://jatim.tribunnews.com/2019/11/21/perlancar-usaha-laundry-warga-dolly-terima-csr-mobil-box-dari-bank-bni</t>
-  </si>
-  <si>
-    <t>jatim.tribunnews.com</t>
-  </si>
-  <si>
-    <t>2019-11-05T11:40:13Z</t>
-  </si>
-  <si>
-    <t>Bank Mandiri</t>
-  </si>
-  <si>
-    <t>Masjid PDAM Tirta Pakuan Dibantu CSR Bank Syariah Mandiri</t>
-  </si>
-  <si>
-    <t>https://www.inilahkoran.com/berita/30567/masjid-pdam-tirta-pakuan-dibantu-csr-bank-syariah-mandiri</t>
-  </si>
-  <si>
-    <t>2019-07-10T04:40:00+01:00</t>
-  </si>
-  <si>
-    <t>Bank Mandiri Wujudkan Visi bidang Kesehatan | Radarlampung.co.id</t>
-  </si>
-  <si>
-    <t>https://radarlampung.co.id/2019/07/10/bank-mandiri-wujudkan-visi-bidang-kesehatan/</t>
-  </si>
-  <si>
-    <t>2019-07-09T15:02:54+01:00</t>
-  </si>
-  <si>
-    <t>Bank Mandiri Area Bandar Lampung Salurkan CSR 2 Mobil Ambulans ke Klinik di Tuba dan PCNU Lamsel - Tribun Lampung</t>
-  </si>
-  <si>
-    <t>https://lampung.tribunnews.com/2019/07/09/bank-mandiri-area-bandar-lampung-salurkan-csr-2-mobil-ambulans-ke-klinik-di-tuba-dan-pcnu-lamsel</t>
-  </si>
-  <si>
-    <t>2019-10-21T03:50:55+01:00</t>
-  </si>
-  <si>
-    <t>Bank Mandiri Salurkan CSR Rp100 Juta – RADAR DEPOK | Koran Depok Sesungguhnya</t>
-  </si>
-  <si>
-    <t>http://radardepok.com/2019/10/bank-mandiri-salurkan-csr-rp100-juta/</t>
-  </si>
-  <si>
-    <t>2019-03-30T12:52:42Z</t>
-  </si>
-  <si>
-    <t>Rutan Labuhandeli-Bank Syariah Madiri Teken Kerja Sama Berdayakan Napi</t>
-  </si>
-  <si>
-    <t>http://www.medanbisnisdaily.com/news/online/read/2019/03/30/70724/rutan_labuhandeli_bank_syariah_madiri_teken_kerja_sama_berdayakan_napi/</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O147"/>
+  <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1861,19 +1828,19 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="L7" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -1881,16 +1848,16 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -1905,36 +1872,36 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.0</v>
       </c>
-      <c r="L8" t="n">
-        <v>8.0</v>
-      </c>
       <c r="M8" t="n">
         <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1949,36 +1916,36 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K9" t="n">
         <v>0.0</v>
       </c>
       <c r="L9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="M9" t="n">
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1993,36 +1960,36 @@
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="n">
         <v>0.0</v>
       </c>
       <c r="L10" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="M10" t="n">
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
@@ -2037,36 +2004,36 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K11" t="n">
         <v>0.0</v>
       </c>
       <c r="L11" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="M11" t="n">
         <v>0.0</v>
       </c>
       <c r="N11" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
         <v>29</v>
@@ -2081,36 +2048,36 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K12" t="n">
         <v>0.0</v>
       </c>
       <c r="L12" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="M12" t="n">
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
@@ -2125,36 +2092,36 @@
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L13" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M13" t="n">
         <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
         <v>29</v>
@@ -2169,36 +2136,36 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K14" t="n">
         <v>0.0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -2213,36 +2180,36 @@
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.0</v>
+        <v>43.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="L15" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="N15" t="n">
-        <v>3.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
         <v>29</v>
@@ -2257,36 +2224,36 @@
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L16" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="M16" t="n">
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
         <v>29</v>
@@ -2301,36 +2268,36 @@
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K17" t="n">
         <v>0.0</v>
       </c>
       <c r="L17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M17" t="n">
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
         <v>29</v>
@@ -2345,36 +2312,36 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K18" t="n">
         <v>0.0</v>
       </c>
       <c r="L18" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
         <v>29</v>
@@ -2389,36 +2356,36 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K19" t="n">
         <v>0.0</v>
       </c>
       <c r="L19" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M19" t="n">
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
@@ -2433,36 +2400,36 @@
         <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K20" t="n">
         <v>0.0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M20" t="n">
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
         <v>29</v>
@@ -2477,10 +2444,10 @@
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L21" t="n">
         <v>2.0</v>
@@ -2489,25 +2456,25 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
         <v>74</v>
       </c>
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
       <c r="F22" t="s">
         <v>29</v>
       </c>
@@ -2521,36 +2488,36 @@
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K22" t="n">
         <v>0.0</v>
       </c>
       <c r="L22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M22" t="n">
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
         <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
         <v>29</v>
@@ -2565,36 +2532,36 @@
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M23" t="n">
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
         <v>29</v>
@@ -2609,36 +2576,36 @@
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K24" t="n">
         <v>0.0</v>
       </c>
       <c r="L24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M24" t="n">
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
         <v>29</v>
@@ -2653,36 +2620,36 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K25" t="n">
         <v>0.0</v>
       </c>
       <c r="L25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
         <v>29</v>
@@ -2697,36 +2664,36 @@
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K26" t="n">
         <v>0.0</v>
       </c>
       <c r="L26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -2741,36 +2708,36 @@
         <v>0.0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K27" t="n">
         <v>0.0</v>
       </c>
       <c r="L27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M27" t="n">
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
         <v>29</v>
@@ -2802,19 +2769,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
@@ -2846,19 +2813,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
         <v>29</v>
@@ -2873,36 +2840,36 @@
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
         <v>29</v>
@@ -2917,36 +2884,36 @@
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
         <v>29</v>
@@ -2961,36 +2928,36 @@
         <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K32" t="n">
         <v>0.0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M32" t="n">
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
         <v>29</v>
@@ -3005,36 +2972,36 @@
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K33" t="n">
         <v>0.0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M33" t="n">
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
         <v>29</v>
@@ -3049,36 +3016,36 @@
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K34" t="n">
         <v>0.0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M34" t="n">
         <v>0.0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
         <v>29</v>
@@ -3093,36 +3060,36 @@
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K35" t="n">
         <v>0.0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M35" t="n">
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
         <v>29</v>
@@ -3137,36 +3104,36 @@
         <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K36" t="n">
         <v>0.0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M36" t="n">
         <v>0.0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
         <v>29</v>
@@ -3181,36 +3148,36 @@
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M37" t="n">
         <v>0.0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="F38" t="s">
         <v>29</v>
@@ -3242,19 +3209,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F39" t="s">
         <v>29</v>
@@ -3286,19 +3253,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
         <v>29</v>
@@ -3313,36 +3280,36 @@
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0</v>
+        <v>0.0</v>
       </c>
       <c r="K40" t="n">
-        <v>72.0</v>
+        <v>0.0</v>
       </c>
       <c r="L40" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s">
         <v>29</v>
@@ -3357,36 +3324,36 @@
         <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>61.0</v>
+        <v>0.0</v>
       </c>
       <c r="L41" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="M41" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N41" t="n">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F42" t="s">
         <v>29</v>
@@ -3401,36 +3368,36 @@
         <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="K42" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="L42" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="M42" t="n">
         <v>0.0</v>
       </c>
       <c r="N42" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F43" t="s">
         <v>29</v>
@@ -3445,36 +3412,36 @@
         <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="K43" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="L43" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="M43" t="n">
         <v>0.0</v>
       </c>
       <c r="N43" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s">
         <v>29</v>
@@ -3489,36 +3456,36 @@
         <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="K44" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="L44" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N44" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
         <v>143</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="F45" t="s">
         <v>29</v>
@@ -3533,19 +3500,19 @@
         <v>0.0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="L45" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="M45" t="n">
         <v>0.0</v>
       </c>
       <c r="N45" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -3553,16 +3520,16 @@
         <v>144</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" t="s">
         <v>145</v>
       </c>
-      <c r="D46" t="s">
-        <v>146</v>
-      </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="F46" t="s">
         <v>29</v>
@@ -3577,36 +3544,36 @@
         <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="K46" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="L46" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="M46" t="n">
         <v>0.0</v>
       </c>
       <c r="N46" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
         <v>147</v>
-      </c>
-      <c r="B47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" t="s">
-        <v>135</v>
       </c>
       <c r="D47" t="s">
         <v>148</v>
       </c>
       <c r="E47" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F47" t="s">
         <v>29</v>
@@ -3621,36 +3588,36 @@
         <v>0.0</v>
       </c>
       <c r="J47" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="K47" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="L47" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="M47" t="n">
         <v>0.0</v>
       </c>
       <c r="N47" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F48" t="s">
         <v>29</v>
@@ -3662,39 +3629,39 @@
         <v>0.0</v>
       </c>
       <c r="I48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M48" t="n">
         <v>1.0</v>
       </c>
-      <c r="J48" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N48" t="n">
-        <v>22.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="F49" t="s">
         <v>29</v>
@@ -3709,36 +3676,36 @@
         <v>0.0</v>
       </c>
       <c r="J49" t="n">
-        <v>14.0</v>
+        <v>70.0</v>
       </c>
       <c r="K49" t="n">
-        <v>10.0</v>
+        <v>61.0</v>
       </c>
       <c r="L49" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N49" t="n">
-        <v>14.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F50" t="s">
         <v>29</v>
@@ -3753,36 +3720,36 @@
         <v>0.0</v>
       </c>
       <c r="J50" t="n">
-        <v>10.0</v>
+        <v>43.0</v>
       </c>
       <c r="K50" t="n">
-        <v>5.0</v>
+        <v>35.0</v>
       </c>
       <c r="L50" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="M50" t="n">
         <v>0.0</v>
       </c>
       <c r="N50" t="n">
-        <v>10.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E51" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="F51" t="s">
         <v>29</v>
@@ -3797,36 +3764,36 @@
         <v>0.0</v>
       </c>
       <c r="J51" t="n">
-        <v>10.0</v>
+        <v>42.0</v>
       </c>
       <c r="K51" t="n">
-        <v>7.0</v>
+        <v>36.0</v>
       </c>
       <c r="L51" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="M51" t="n">
         <v>0.0</v>
       </c>
       <c r="N51" t="n">
-        <v>10.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D52" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E52" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F52" t="s">
         <v>29</v>
@@ -3841,36 +3808,36 @@
         <v>0.0</v>
       </c>
       <c r="J52" t="n">
-        <v>6.0</v>
+        <v>34.0</v>
       </c>
       <c r="K52" t="n">
-        <v>5.0</v>
+        <v>30.0</v>
       </c>
       <c r="L52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M52" t="n">
         <v>1.0</v>
       </c>
-      <c r="M52" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N52" t="n">
-        <v>6.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F53" t="s">
         <v>29</v>
@@ -3882,39 +3849,39 @@
         <v>0.0</v>
       </c>
       <c r="I53" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.0</v>
+        <v>34.0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="L53" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="M53" t="n">
         <v>0.0</v>
       </c>
       <c r="N53" t="n">
-        <v>4.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E54" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F54" t="s">
         <v>29</v>
@@ -3926,39 +3893,39 @@
         <v>0.0</v>
       </c>
       <c r="I54" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="L54" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="M54" t="n">
         <v>0.0</v>
       </c>
       <c r="N54" t="n">
-        <v>3.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="F55" t="s">
         <v>29</v>
@@ -3970,39 +3937,39 @@
         <v>0.0</v>
       </c>
       <c r="I55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.0</v>
+        <v>27.0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="L55" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="M55" t="n">
         <v>0.0</v>
       </c>
       <c r="N55" t="n">
-        <v>3.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F56" t="s">
         <v>29</v>
@@ -4017,39 +3984,39 @@
         <v>1.0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="L56" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M56" t="n">
         <v>0.0</v>
       </c>
       <c r="N56" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G57" t="n">
         <v>0.0</v>
@@ -4058,42 +4025,42 @@
         <v>0.0</v>
       </c>
       <c r="I57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="L57" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="M57" t="n">
         <v>0.0</v>
       </c>
       <c r="N57" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F58" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="G58" t="n">
         <v>0.0</v>
@@ -4102,22 +4069,22 @@
         <v>0.0</v>
       </c>
       <c r="I58" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="M58" t="n">
         <v>0.0</v>
       </c>
       <c r="N58" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="59">
@@ -4125,16 +4092,16 @@
         <v>189</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" t="s">
         <v>190</v>
       </c>
-      <c r="D59" t="s">
-        <v>191</v>
-      </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="F59" t="s">
         <v>29</v>
@@ -4149,37 +4116,37 @@
         <v>0.0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="L59" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M59" t="n">
         <v>0.0</v>
       </c>
       <c r="N59" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" t="s">
         <v>192</v>
       </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>193</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>194</v>
       </c>
-      <c r="E60" t="s">
-        <v>129</v>
-      </c>
       <c r="F60" t="s">
         <v>29</v>
       </c>
@@ -4193,10 +4160,10 @@
         <v>0.0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="L60" t="n">
         <v>1.0</v>
@@ -4205,7 +4172,7 @@
         <v>0.0</v>
       </c>
       <c r="N60" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="61">
@@ -4213,7 +4180,7 @@
         <v>195</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
         <v>196</v>
@@ -4234,22 +4201,22 @@
         <v>0.0</v>
       </c>
       <c r="I61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J61" t="n">
         <v>1.0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0.0</v>
-      </c>
       <c r="K61" t="n">
         <v>0.0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M61" t="n">
         <v>0.0</v>
       </c>
       <c r="N61" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="62">
@@ -4257,7 +4224,7 @@
         <v>199</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
         <v>200</v>
@@ -4266,7 +4233,7 @@
         <v>201</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="F62" t="s">
         <v>29</v>
@@ -4278,39 +4245,39 @@
         <v>0.0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K62" t="n">
         <v>0.0</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M62" t="n">
         <v>0.0</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E63" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
         <v>29</v>
@@ -4322,22 +4289,22 @@
         <v>0.0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K63" t="n">
         <v>0.0</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M63" t="n">
         <v>0.0</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64">
@@ -4345,7 +4312,7 @@
         <v>206</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
         <v>207</v>
@@ -4366,22 +4333,22 @@
         <v>0.0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K64" t="n">
         <v>0.0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M64" t="n">
         <v>0.0</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
@@ -4389,7 +4356,7 @@
         <v>210</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
         <v>211</v>
@@ -4398,10 +4365,10 @@
         <v>212</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G65" t="n">
         <v>0.0</v>
@@ -4410,43 +4377,43 @@
         <v>0.0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K65" t="n">
         <v>0.0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M65" t="n">
         <v>0.0</v>
       </c>
       <c r="N65" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" t="s">
         <v>214</v>
       </c>
-      <c r="B66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>215</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>216</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>217</v>
       </c>
-      <c r="F66" t="s">
-        <v>29</v>
-      </c>
       <c r="G66" t="n">
         <v>0.0</v>
       </c>
@@ -4454,7 +4421,7 @@
         <v>0.0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J66" t="n">
         <v>0.0</v>
@@ -4469,7 +4436,7 @@
         <v>0.0</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -4477,7 +4444,7 @@
         <v>218</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C67" t="s">
         <v>219</v>
@@ -4486,7 +4453,7 @@
         <v>220</v>
       </c>
       <c r="E67" t="s">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="F67" t="s">
         <v>29</v>
@@ -4501,36 +4468,36 @@
         <v>0.0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K67" t="n">
         <v>0.0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M67" t="n">
         <v>0.0</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
         <v>222</v>
       </c>
-      <c r="B68" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>223</v>
       </c>
-      <c r="D68" t="s">
-        <v>224</v>
-      </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="F68" t="s">
         <v>29</v>
@@ -4545,37 +4512,37 @@
         <v>0.0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K68" t="n">
         <v>0.0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M68" t="n">
         <v>0.0</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="s">
         <v>225</v>
       </c>
-      <c r="B69" t="s">
-        <v>122</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>226</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>227</v>
       </c>
-      <c r="E69" t="s">
-        <v>228</v>
-      </c>
       <c r="F69" t="s">
         <v>29</v>
       </c>
@@ -4586,7 +4553,7 @@
         <v>0.0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J69" t="n">
         <v>0.0</v>
@@ -4601,24 +4568,24 @@
         <v>0.0</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
         <v>229</v>
       </c>
-      <c r="B70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>230</v>
       </c>
-      <c r="D70" t="s">
-        <v>231</v>
-      </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
         <v>29</v>
@@ -4650,19 +4617,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
         <v>232</v>
       </c>
-      <c r="B71" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>233</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>234</v>
-      </c>
-      <c r="E71" t="s">
-        <v>235</v>
       </c>
       <c r="F71" t="s">
         <v>29</v>
@@ -4694,19 +4661,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="s">
         <v>236</v>
       </c>
-      <c r="B72" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>237</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>238</v>
-      </c>
-      <c r="E72" t="s">
-        <v>217</v>
       </c>
       <c r="F72" t="s">
         <v>29</v>
@@ -4741,7 +4708,7 @@
         <v>239</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C73" t="s">
         <v>240</v>
@@ -4785,7 +4752,7 @@
         <v>243</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
         <v>244</v>
@@ -4829,7 +4796,7 @@
         <v>247</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s">
         <v>248</v>
@@ -4838,7 +4805,7 @@
         <v>249</v>
       </c>
       <c r="E75" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F75" t="s">
         <v>29</v>
@@ -4870,19 +4837,19 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D76" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E76" t="s">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="F76" t="s">
         <v>29</v>
@@ -4914,19 +4881,19 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E77" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="F77" t="s">
         <v>29</v>
@@ -4958,19 +4925,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E78" t="s">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="F78" t="s">
         <v>29</v>
@@ -5002,19 +4969,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D79" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E79" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="F79" t="s">
         <v>29</v>
@@ -5046,19 +5013,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C80" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D80" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E80" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="F80" t="s">
         <v>29</v>
@@ -5090,19 +5057,19 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C81" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D81" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E81" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F81" t="s">
         <v>29</v>
@@ -5134,19 +5101,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C82" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D82" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E82" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="F82" t="s">
         <v>29</v>
@@ -5178,19 +5145,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C83" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D83" t="s">
+        <v>277</v>
+      </c>
+      <c r="E83" t="s">
         <v>274</v>
-      </c>
-      <c r="E83" t="s">
-        <v>275</v>
       </c>
       <c r="F83" t="s">
         <v>29</v>
@@ -5222,19 +5189,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C84" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D84" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E84" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="F84" t="s">
         <v>29</v>
@@ -5266,19 +5233,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D85" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E85" t="s">
-        <v>283</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
         <v>29</v>
@@ -5313,7 +5280,7 @@
         <v>284</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C86" t="s">
         <v>285</v>
@@ -5322,7 +5289,7 @@
         <v>286</v>
       </c>
       <c r="E86" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="F86" t="s">
         <v>29</v>
@@ -5354,19 +5321,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>287</v>
+      </c>
+      <c r="B87" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" t="s">
         <v>288</v>
       </c>
-      <c r="B87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>289</v>
       </c>
-      <c r="D87" t="s">
-        <v>290</v>
-      </c>
       <c r="E87" t="s">
-        <v>291</v>
+        <v>149</v>
       </c>
       <c r="F87" t="s">
         <v>29</v>
@@ -5398,19 +5365,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>290</v>
+      </c>
+      <c r="B88" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" t="s">
+        <v>291</v>
+      </c>
+      <c r="D88" t="s">
         <v>292</v>
       </c>
-      <c r="B88" t="s">
-        <v>122</v>
-      </c>
-      <c r="C88" t="s">
-        <v>293</v>
-      </c>
-      <c r="D88" t="s">
-        <v>294</v>
-      </c>
       <c r="E88" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="F88" t="s">
         <v>29</v>
@@ -5442,19 +5409,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>293</v>
+      </c>
+      <c r="B89" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" t="s">
+        <v>294</v>
+      </c>
+      <c r="D89" t="s">
         <v>295</v>
       </c>
-      <c r="B89" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
         <v>296</v>
-      </c>
-      <c r="D89" t="s">
-        <v>297</v>
-      </c>
-      <c r="E89" t="s">
-        <v>298</v>
       </c>
       <c r="F89" t="s">
         <v>29</v>
@@ -5486,19 +5453,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>297</v>
+      </c>
+      <c r="B90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" t="s">
+        <v>298</v>
+      </c>
+      <c r="D90" t="s">
         <v>299</v>
       </c>
-      <c r="B90" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" t="s">
-        <v>226</v>
-      </c>
-      <c r="D90" t="s">
-        <v>300</v>
-      </c>
       <c r="E90" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="F90" t="s">
         <v>29</v>
@@ -5530,19 +5497,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>300</v>
+      </c>
+      <c r="B91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" t="s">
+        <v>301</v>
+      </c>
+      <c r="D91" t="s">
         <v>302</v>
       </c>
-      <c r="B91" t="s">
-        <v>122</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>303</v>
-      </c>
-      <c r="D91" t="s">
-        <v>304</v>
-      </c>
-      <c r="E91" t="s">
-        <v>45</v>
       </c>
       <c r="F91" t="s">
         <v>29</v>
@@ -5574,19 +5541,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>304</v>
+      </c>
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" t="s">
         <v>305</v>
-      </c>
-      <c r="B92" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" t="s">
-        <v>277</v>
       </c>
       <c r="D92" t="s">
         <v>306</v>
       </c>
       <c r="E92" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="F92" t="s">
         <v>29</v>
@@ -5618,19 +5585,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C93" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D93" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E93" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F93" t="s">
         <v>29</v>
@@ -5662,19 +5629,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C94" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D94" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E94" t="s">
-        <v>209</v>
+        <v>315</v>
       </c>
       <c r="F94" t="s">
         <v>29</v>
@@ -5706,19 +5673,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B95" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C95" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D95" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E95" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="F95" t="s">
         <v>29</v>
@@ -5750,19 +5717,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B96" t="s">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="C96" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D96" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E96" t="s">
-        <v>321</v>
+        <v>50</v>
       </c>
       <c r="F96" t="s">
         <v>29</v>
@@ -5777,19 +5744,19 @@
         <v>0.0</v>
       </c>
       <c r="J96" t="n">
-        <v>150.0</v>
+        <v>0.0</v>
       </c>
       <c r="K96" t="n">
-        <v>123.0</v>
+        <v>0.0</v>
       </c>
       <c r="L96" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="M96" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="N96" t="n">
-        <v>150.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
@@ -5797,7 +5764,7 @@
         <v>322</v>
       </c>
       <c r="B97" t="s">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="C97" t="s">
         <v>323</v>
@@ -5809,7 +5776,7 @@
         <v>325</v>
       </c>
       <c r="F97" t="s">
-        <v>326</v>
+        <v>29</v>
       </c>
       <c r="G97" t="n">
         <v>0.0</v>
@@ -5818,40 +5785,40 @@
         <v>0.0</v>
       </c>
       <c r="I97" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="J97" t="n">
-        <v>104.0</v>
+        <v>0.0</v>
       </c>
       <c r="K97" t="n">
-        <v>93.0</v>
+        <v>0.0</v>
       </c>
       <c r="L97" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M97" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="N97" t="n">
-        <v>113.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>326</v>
+      </c>
+      <c r="B98" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" t="s">
+        <v>255</v>
+      </c>
+      <c r="D98" t="s">
         <v>327</v>
       </c>
-      <c r="B98" t="s">
-        <v>318</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="E98" t="s">
         <v>328</v>
       </c>
-      <c r="D98" t="s">
-        <v>329</v>
-      </c>
-      <c r="E98" t="s">
-        <v>330</v>
-      </c>
       <c r="F98" t="s">
         <v>29</v>
       </c>
@@ -5862,39 +5829,39 @@
         <v>0.0</v>
       </c>
       <c r="I98" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J98" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="K98" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="L98" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M98" t="n">
         <v>0.0</v>
       </c>
       <c r="N98" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>329</v>
+      </c>
+      <c r="B99" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" t="s">
+        <v>330</v>
+      </c>
+      <c r="D99" t="s">
         <v>331</v>
       </c>
-      <c r="B99" t="s">
-        <v>318</v>
-      </c>
-      <c r="C99" t="s">
-        <v>332</v>
-      </c>
-      <c r="D99" t="s">
-        <v>333</v>
-      </c>
       <c r="E99" t="s">
-        <v>334</v>
+        <v>74</v>
       </c>
       <c r="F99" t="s">
         <v>29</v>
@@ -5909,36 +5876,36 @@
         <v>0.0</v>
       </c>
       <c r="J99" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="K99" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="L99" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M99" t="n">
         <v>0.0</v>
       </c>
       <c r="N99" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B100" t="s">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="C100" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="D100" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E100" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="F100" t="s">
         <v>29</v>
@@ -5953,36 +5920,36 @@
         <v>0.0</v>
       </c>
       <c r="J100" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="K100" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="L100" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M100" t="n">
         <v>0.0</v>
       </c>
       <c r="N100" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B101" t="s">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="C101" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="D101" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E101" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F101" t="s">
         <v>29</v>
@@ -5997,36 +5964,36 @@
         <v>0.0</v>
       </c>
       <c r="J101" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K101" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="L101" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M101" t="n">
         <v>0.0</v>
       </c>
       <c r="N101" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B102" t="s">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="C102" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D102" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E102" t="s">
-        <v>345</v>
+        <v>238</v>
       </c>
       <c r="F102" t="s">
         <v>29</v>
@@ -6038,39 +6005,39 @@
         <v>0.0</v>
       </c>
       <c r="I102" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M102" t="n">
         <v>0.0</v>
       </c>
       <c r="N102" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B103" t="s">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="C103" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D103" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E103" t="s">
-        <v>349</v>
+        <v>162</v>
       </c>
       <c r="F103" t="s">
         <v>29</v>
@@ -6085,39 +6052,39 @@
         <v>0.0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K103" t="n">
         <v>0.0</v>
       </c>
       <c r="L103" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M103" t="n">
         <v>0.0</v>
       </c>
       <c r="N103" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B104" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C104" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D104" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>348</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G104" t="n">
         <v>0.0</v>
@@ -6126,43 +6093,43 @@
         <v>0.0</v>
       </c>
       <c r="I104" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J104" t="n">
-        <v>1.0</v>
+        <v>150.0</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0</v>
+        <v>123.0</v>
       </c>
       <c r="L104" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="N104" t="n">
-        <v>2.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>349</v>
+      </c>
+      <c r="B105" t="s">
+        <v>345</v>
+      </c>
+      <c r="C105" t="s">
+        <v>350</v>
+      </c>
+      <c r="D105" t="s">
+        <v>351</v>
+      </c>
+      <c r="E105" t="s">
+        <v>352</v>
+      </c>
+      <c r="F105" t="s">
         <v>353</v>
       </c>
-      <c r="B105" t="s">
-        <v>318</v>
-      </c>
-      <c r="C105" t="s">
-        <v>354</v>
-      </c>
-      <c r="D105" t="s">
-        <v>355</v>
-      </c>
-      <c r="E105" t="s">
-        <v>356</v>
-      </c>
-      <c r="F105" t="s">
-        <v>29</v>
-      </c>
       <c r="G105" t="n">
         <v>0.0</v>
       </c>
@@ -6170,39 +6137,39 @@
         <v>0.0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.0</v>
+        <v>104.0</v>
       </c>
       <c r="K105" t="n">
-        <v>1.0</v>
+        <v>93.0</v>
       </c>
       <c r="L105" t="n">
         <v>1.0</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="N105" t="n">
-        <v>2.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>354</v>
+      </c>
+      <c r="B106" t="s">
+        <v>345</v>
+      </c>
+      <c r="C106" t="s">
+        <v>355</v>
+      </c>
+      <c r="D106" t="s">
+        <v>356</v>
+      </c>
+      <c r="E106" t="s">
         <v>357</v>
-      </c>
-      <c r="B106" t="s">
-        <v>318</v>
-      </c>
-      <c r="C106" t="s">
-        <v>358</v>
-      </c>
-      <c r="D106" t="s">
-        <v>359</v>
-      </c>
-      <c r="E106" t="s">
-        <v>33</v>
       </c>
       <c r="F106" t="s">
         <v>29</v>
@@ -6217,37 +6184,37 @@
         <v>1.0</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M106" t="n">
         <v>0.0</v>
       </c>
       <c r="N106" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>358</v>
+      </c>
+      <c r="B107" t="s">
+        <v>345</v>
+      </c>
+      <c r="C107" t="s">
+        <v>359</v>
+      </c>
+      <c r="D107" t="s">
         <v>360</v>
       </c>
-      <c r="B107" t="s">
-        <v>318</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="E107" t="s">
         <v>361</v>
       </c>
-      <c r="D107" t="s">
-        <v>362</v>
-      </c>
-      <c r="E107" t="s">
-        <v>93</v>
-      </c>
       <c r="F107" t="s">
         <v>29</v>
       </c>
@@ -6261,37 +6228,37 @@
         <v>0.0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="L107" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M107" t="n">
         <v>0.0</v>
       </c>
       <c r="N107" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>362</v>
+      </c>
+      <c r="B108" t="s">
+        <v>345</v>
+      </c>
+      <c r="C108" t="s">
         <v>363</v>
       </c>
-      <c r="B108" t="s">
-        <v>318</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>364</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>365</v>
       </c>
-      <c r="E108" t="s">
-        <v>356</v>
-      </c>
       <c r="F108" t="s">
         <v>29</v>
       </c>
@@ -6305,10 +6272,10 @@
         <v>0.0</v>
       </c>
       <c r="J108" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="L108" t="n">
         <v>1.0</v>
@@ -6317,7 +6284,7 @@
         <v>0.0</v>
       </c>
       <c r="N108" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="109">
@@ -6325,17 +6292,17 @@
         <v>366</v>
       </c>
       <c r="B109" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C109" t="s">
+        <v>350</v>
+      </c>
+      <c r="D109" t="s">
         <v>367</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>368</v>
       </c>
-      <c r="E109" t="s">
-        <v>369</v>
-      </c>
       <c r="F109" t="s">
         <v>29</v>
       </c>
@@ -6349,37 +6316,37 @@
         <v>0.0</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M109" t="n">
         <v>0.0</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>369</v>
+      </c>
+      <c r="B110" t="s">
+        <v>345</v>
+      </c>
+      <c r="C110" t="s">
         <v>370</v>
       </c>
-      <c r="B110" t="s">
-        <v>318</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>371</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>372</v>
       </c>
-      <c r="E110" t="s">
-        <v>373</v>
-      </c>
       <c r="F110" t="s">
         <v>29</v>
       </c>
@@ -6390,40 +6357,40 @@
         <v>0.0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M110" t="n">
         <v>0.0</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>373</v>
+      </c>
+      <c r="B111" t="s">
+        <v>345</v>
+      </c>
+      <c r="C111" t="s">
         <v>374</v>
       </c>
-      <c r="B111" t="s">
-        <v>318</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>375</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>376</v>
       </c>
-      <c r="E111" t="s">
-        <v>377</v>
-      </c>
       <c r="F111" t="s">
         <v>29</v>
       </c>
@@ -6437,39 +6404,39 @@
         <v>0.0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K111" t="n">
         <v>0.0</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M111" t="n">
         <v>0.0</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>377</v>
+      </c>
+      <c r="B112" t="s">
+        <v>345</v>
+      </c>
+      <c r="C112" t="s">
         <v>378</v>
       </c>
-      <c r="B112" t="s">
-        <v>318</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>379</v>
       </c>
-      <c r="D112" t="s">
-        <v>380</v>
-      </c>
       <c r="E112" t="s">
-        <v>381</v>
+        <v>18</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G112" t="n">
         <v>0.0</v>
@@ -6478,40 +6445,40 @@
         <v>0.0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K112" t="n">
         <v>0.0</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M112" t="n">
         <v>0.0</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>380</v>
+      </c>
+      <c r="B113" t="s">
+        <v>345</v>
+      </c>
+      <c r="C113" t="s">
+        <v>381</v>
+      </c>
+      <c r="D113" t="s">
         <v>382</v>
       </c>
-      <c r="B113" t="s">
-        <v>318</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="E113" t="s">
         <v>383</v>
       </c>
-      <c r="D113" t="s">
-        <v>384</v>
-      </c>
-      <c r="E113" t="s">
-        <v>385</v>
-      </c>
       <c r="F113" t="s">
         <v>29</v>
       </c>
@@ -6525,36 +6492,36 @@
         <v>0.0</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M113" t="n">
         <v>0.0</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>384</v>
+      </c>
+      <c r="B114" t="s">
+        <v>345</v>
+      </c>
+      <c r="C114" t="s">
+        <v>385</v>
+      </c>
+      <c r="D114" t="s">
         <v>386</v>
       </c>
-      <c r="B114" t="s">
-        <v>318</v>
-      </c>
-      <c r="C114" t="s">
-        <v>387</v>
-      </c>
-      <c r="D114" t="s">
-        <v>388</v>
-      </c>
       <c r="E114" t="s">
-        <v>389</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
         <v>29</v>
@@ -6566,7 +6533,7 @@
         <v>0.0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J114" t="n">
         <v>0.0</v>
@@ -6581,24 +6548,24 @@
         <v>0.0</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B115" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C115" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D115" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E115" t="s">
-        <v>291</v>
+        <v>122</v>
       </c>
       <c r="F115" t="s">
         <v>29</v>
@@ -6613,36 +6580,36 @@
         <v>0.0</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K115" t="n">
         <v>0.0</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M115" t="n">
         <v>0.0</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B116" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C116" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D116" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E116" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F116" t="s">
         <v>29</v>
@@ -6657,36 +6624,36 @@
         <v>0.0</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K116" t="n">
         <v>0.0</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M116" t="n">
         <v>0.0</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B117" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C117" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D117" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E117" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F117" t="s">
         <v>29</v>
@@ -6718,19 +6685,19 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B118" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C118" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D118" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E118" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F118" t="s">
         <v>29</v>
@@ -6762,19 +6729,19 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B119" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C119" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D119" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E119" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="F119" t="s">
         <v>29</v>
@@ -6806,19 +6773,19 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>405</v>
+      </c>
+      <c r="B120" t="s">
+        <v>345</v>
+      </c>
+      <c r="C120" t="s">
+        <v>406</v>
+      </c>
+      <c r="D120" t="s">
+        <v>407</v>
+      </c>
+      <c r="E120" t="s">
         <v>408</v>
-      </c>
-      <c r="B120" t="s">
-        <v>318</v>
-      </c>
-      <c r="C120" t="s">
-        <v>409</v>
-      </c>
-      <c r="D120" t="s">
-        <v>410</v>
-      </c>
-      <c r="E120" t="s">
-        <v>411</v>
       </c>
       <c r="F120" t="s">
         <v>29</v>
@@ -6850,19 +6817,19 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>409</v>
+      </c>
+      <c r="B121" t="s">
+        <v>345</v>
+      </c>
+      <c r="C121" t="s">
+        <v>410</v>
+      </c>
+      <c r="D121" t="s">
+        <v>411</v>
+      </c>
+      <c r="E121" t="s">
         <v>412</v>
-      </c>
-      <c r="B121" t="s">
-        <v>318</v>
-      </c>
-      <c r="C121" t="s">
-        <v>413</v>
-      </c>
-      <c r="D121" t="s">
-        <v>414</v>
-      </c>
-      <c r="E121" t="s">
-        <v>373</v>
       </c>
       <c r="F121" t="s">
         <v>29</v>
@@ -6894,19 +6861,19 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>413</v>
+      </c>
+      <c r="B122" t="s">
+        <v>345</v>
+      </c>
+      <c r="C122" t="s">
+        <v>414</v>
+      </c>
+      <c r="D122" t="s">
         <v>415</v>
       </c>
-      <c r="B122" t="s">
-        <v>318</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="E122" t="s">
         <v>416</v>
-      </c>
-      <c r="D122" t="s">
-        <v>417</v>
-      </c>
-      <c r="E122" t="s">
-        <v>418</v>
       </c>
       <c r="F122" t="s">
         <v>29</v>
@@ -6938,19 +6905,19 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>417</v>
+      </c>
+      <c r="B123" t="s">
+        <v>345</v>
+      </c>
+      <c r="C123" t="s">
+        <v>418</v>
+      </c>
+      <c r="D123" t="s">
         <v>419</v>
       </c>
-      <c r="B123" t="s">
-        <v>318</v>
-      </c>
-      <c r="C123" t="s">
-        <v>420</v>
-      </c>
-      <c r="D123" t="s">
-        <v>421</v>
-      </c>
       <c r="E123" t="s">
-        <v>422</v>
+        <v>50</v>
       </c>
       <c r="F123" t="s">
         <v>29</v>
@@ -6982,19 +6949,19 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>420</v>
+      </c>
+      <c r="B124" t="s">
+        <v>345</v>
+      </c>
+      <c r="C124" t="s">
+        <v>421</v>
+      </c>
+      <c r="D124" t="s">
+        <v>422</v>
+      </c>
+      <c r="E124" t="s">
         <v>423</v>
-      </c>
-      <c r="B124" t="s">
-        <v>318</v>
-      </c>
-      <c r="C124" t="s">
-        <v>424</v>
-      </c>
-      <c r="D124" t="s">
-        <v>425</v>
-      </c>
-      <c r="E124" t="s">
-        <v>129</v>
       </c>
       <c r="F124" t="s">
         <v>29</v>
@@ -7026,19 +6993,19 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>424</v>
+      </c>
+      <c r="B125" t="s">
+        <v>345</v>
+      </c>
+      <c r="C125" t="s">
+        <v>425</v>
+      </c>
+      <c r="D125" t="s">
         <v>426</v>
       </c>
-      <c r="B125" t="s">
-        <v>318</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="E125" t="s">
         <v>427</v>
-      </c>
-      <c r="D125" t="s">
-        <v>428</v>
-      </c>
-      <c r="E125" t="s">
-        <v>429</v>
       </c>
       <c r="F125" t="s">
         <v>29</v>
@@ -7070,19 +7037,19 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>428</v>
+      </c>
+      <c r="B126" t="s">
+        <v>345</v>
+      </c>
+      <c r="C126" t="s">
+        <v>429</v>
+      </c>
+      <c r="D126" t="s">
         <v>430</v>
       </c>
-      <c r="B126" t="s">
-        <v>318</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="E126" t="s">
         <v>431</v>
-      </c>
-      <c r="D126" t="s">
-        <v>432</v>
-      </c>
-      <c r="E126" t="s">
-        <v>433</v>
       </c>
       <c r="F126" t="s">
         <v>29</v>
@@ -7114,19 +7081,19 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>432</v>
+      </c>
+      <c r="B127" t="s">
+        <v>345</v>
+      </c>
+      <c r="C127" t="s">
+        <v>433</v>
+      </c>
+      <c r="D127" t="s">
         <v>434</v>
       </c>
-      <c r="B127" t="s">
-        <v>318</v>
-      </c>
-      <c r="C127" t="s">
-        <v>435</v>
-      </c>
-      <c r="D127" t="s">
-        <v>436</v>
-      </c>
       <c r="E127" t="s">
-        <v>437</v>
+        <v>365</v>
       </c>
       <c r="F127" t="s">
         <v>29</v>
@@ -7158,19 +7125,19 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>435</v>
+      </c>
+      <c r="B128" t="s">
+        <v>345</v>
+      </c>
+      <c r="C128" t="s">
+        <v>436</v>
+      </c>
+      <c r="D128" t="s">
+        <v>437</v>
+      </c>
+      <c r="E128" t="s">
         <v>438</v>
-      </c>
-      <c r="B128" t="s">
-        <v>318</v>
-      </c>
-      <c r="C128" t="s">
-        <v>439</v>
-      </c>
-      <c r="D128" t="s">
-        <v>440</v>
-      </c>
-      <c r="E128" t="s">
-        <v>377</v>
       </c>
       <c r="F128" t="s">
         <v>29</v>
@@ -7202,19 +7169,19 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>439</v>
+      </c>
+      <c r="B129" t="s">
+        <v>345</v>
+      </c>
+      <c r="C129" t="s">
+        <v>440</v>
+      </c>
+      <c r="D129" t="s">
         <v>441</v>
       </c>
-      <c r="B129" t="s">
-        <v>318</v>
-      </c>
-      <c r="C129" t="s">
-        <v>442</v>
-      </c>
-      <c r="D129" t="s">
-        <v>443</v>
-      </c>
       <c r="E129" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="F129" t="s">
         <v>29</v>
@@ -7246,19 +7213,19 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>442</v>
+      </c>
+      <c r="B130" t="s">
+        <v>345</v>
+      </c>
+      <c r="C130" t="s">
+        <v>443</v>
+      </c>
+      <c r="D130" t="s">
+        <v>444</v>
+      </c>
+      <c r="E130" t="s">
         <v>445</v>
-      </c>
-      <c r="B130" t="s">
-        <v>318</v>
-      </c>
-      <c r="C130" t="s">
-        <v>446</v>
-      </c>
-      <c r="D130" t="s">
-        <v>447</v>
-      </c>
-      <c r="E130" t="s">
-        <v>448</v>
       </c>
       <c r="F130" t="s">
         <v>29</v>
@@ -7290,19 +7257,19 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>446</v>
+      </c>
+      <c r="B131" t="s">
+        <v>345</v>
+      </c>
+      <c r="C131" t="s">
+        <v>447</v>
+      </c>
+      <c r="D131" t="s">
+        <v>448</v>
+      </c>
+      <c r="E131" t="s">
         <v>449</v>
-      </c>
-      <c r="B131" t="s">
-        <v>318</v>
-      </c>
-      <c r="C131" t="s">
-        <v>450</v>
-      </c>
-      <c r="D131" t="s">
-        <v>451</v>
-      </c>
-      <c r="E131" t="s">
-        <v>377</v>
       </c>
       <c r="F131" t="s">
         <v>29</v>
@@ -7334,19 +7301,19 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>450</v>
+      </c>
+      <c r="B132" t="s">
+        <v>345</v>
+      </c>
+      <c r="C132" t="s">
+        <v>451</v>
+      </c>
+      <c r="D132" t="s">
         <v>452</v>
       </c>
-      <c r="B132" t="s">
-        <v>318</v>
-      </c>
-      <c r="C132" t="s">
-        <v>453</v>
-      </c>
-      <c r="D132" t="s">
-        <v>454</v>
-      </c>
       <c r="E132" t="s">
-        <v>455</v>
+        <v>158</v>
       </c>
       <c r="F132" t="s">
         <v>29</v>
@@ -7378,19 +7345,19 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>453</v>
+      </c>
+      <c r="B133" t="s">
+        <v>345</v>
+      </c>
+      <c r="C133" t="s">
+        <v>454</v>
+      </c>
+      <c r="D133" t="s">
+        <v>455</v>
+      </c>
+      <c r="E133" t="s">
         <v>456</v>
-      </c>
-      <c r="B133" t="s">
-        <v>318</v>
-      </c>
-      <c r="C133" t="s">
-        <v>457</v>
-      </c>
-      <c r="D133" t="s">
-        <v>458</v>
-      </c>
-      <c r="E133" t="s">
-        <v>459</v>
       </c>
       <c r="F133" t="s">
         <v>29</v>
@@ -7422,19 +7389,19 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>457</v>
+      </c>
+      <c r="B134" t="s">
+        <v>345</v>
+      </c>
+      <c r="C134" t="s">
+        <v>458</v>
+      </c>
+      <c r="D134" t="s">
+        <v>459</v>
+      </c>
+      <c r="E134" t="s">
         <v>460</v>
-      </c>
-      <c r="B134" t="s">
-        <v>318</v>
-      </c>
-      <c r="C134" t="s">
-        <v>461</v>
-      </c>
-      <c r="D134" t="s">
-        <v>462</v>
-      </c>
-      <c r="E134" t="s">
-        <v>463</v>
       </c>
       <c r="F134" t="s">
         <v>29</v>
@@ -7466,20 +7433,20 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>461</v>
+      </c>
+      <c r="B135" t="s">
+        <v>345</v>
+      </c>
+      <c r="C135" t="s">
+        <v>462</v>
+      </c>
+      <c r="D135" t="s">
+        <v>463</v>
+      </c>
+      <c r="E135" t="s">
         <v>464</v>
       </c>
-      <c r="B135" t="s">
-        <v>465</v>
-      </c>
-      <c r="C135" t="s">
-        <v>466</v>
-      </c>
-      <c r="D135" t="s">
-        <v>467</v>
-      </c>
-      <c r="E135" t="s">
-        <v>429</v>
-      </c>
       <c r="F135" t="s">
         <v>29</v>
       </c>
@@ -7493,36 +7460,36 @@
         <v>0.0</v>
       </c>
       <c r="J135" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="K135" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="L135" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M135" t="n">
         <v>0.0</v>
       </c>
       <c r="N135" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B136" t="s">
-        <v>465</v>
+        <v>345</v>
       </c>
       <c r="C136" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D136" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E136" t="s">
-        <v>471</v>
+        <v>404</v>
       </c>
       <c r="F136" t="s">
         <v>29</v>
@@ -7537,33 +7504,33 @@
         <v>0.0</v>
       </c>
       <c r="J136" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K136" t="n">
         <v>0.0</v>
       </c>
       <c r="L136" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M136" t="n">
         <v>0.0</v>
       </c>
       <c r="N136" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B137" t="s">
-        <v>465</v>
+        <v>345</v>
       </c>
       <c r="C137" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D137" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E137" t="s">
         <v>471</v>
@@ -7598,19 +7565,19 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>472</v>
+      </c>
+      <c r="B138" t="s">
+        <v>345</v>
+      </c>
+      <c r="C138" t="s">
+        <v>473</v>
+      </c>
+      <c r="D138" t="s">
+        <v>474</v>
+      </c>
+      <c r="E138" t="s">
         <v>475</v>
-      </c>
-      <c r="B138" t="s">
-        <v>465</v>
-      </c>
-      <c r="C138" t="s">
-        <v>476</v>
-      </c>
-      <c r="D138" t="s">
-        <v>477</v>
-      </c>
-      <c r="E138" t="s">
-        <v>478</v>
       </c>
       <c r="F138" t="s">
         <v>29</v>
@@ -7642,19 +7609,19 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B139" t="s">
-        <v>465</v>
+        <v>345</v>
       </c>
       <c r="C139" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D139" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E139" t="s">
-        <v>287</v>
+        <v>404</v>
       </c>
       <c r="F139" t="s">
         <v>29</v>
@@ -7686,19 +7653,19 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>479</v>
+      </c>
+      <c r="B140" t="s">
+        <v>345</v>
+      </c>
+      <c r="C140" t="s">
+        <v>480</v>
+      </c>
+      <c r="D140" t="s">
+        <v>481</v>
+      </c>
+      <c r="E140" t="s">
         <v>482</v>
-      </c>
-      <c r="B140" t="s">
-        <v>465</v>
-      </c>
-      <c r="C140" t="s">
-        <v>483</v>
-      </c>
-      <c r="D140" t="s">
-        <v>484</v>
-      </c>
-      <c r="E140" t="s">
-        <v>485</v>
       </c>
       <c r="F140" t="s">
         <v>29</v>
@@ -7730,20 +7697,20 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>483</v>
+      </c>
+      <c r="B141" t="s">
+        <v>345</v>
+      </c>
+      <c r="C141" t="s">
+        <v>484</v>
+      </c>
+      <c r="D141" t="s">
+        <v>485</v>
+      </c>
+      <c r="E141" t="s">
         <v>486</v>
       </c>
-      <c r="B141" t="s">
-        <v>487</v>
-      </c>
-      <c r="C141" t="s">
-        <v>488</v>
-      </c>
-      <c r="D141" t="s">
-        <v>489</v>
-      </c>
-      <c r="E141" t="s">
-        <v>283</v>
-      </c>
       <c r="F141" t="s">
         <v>29</v>
       </c>
@@ -7754,7 +7721,7 @@
         <v>0.0</v>
       </c>
       <c r="I141" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J141" t="n">
         <v>0.0</v>
@@ -7769,25 +7736,25 @@
         <v>0.0</v>
       </c>
       <c r="N141" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>487</v>
+      </c>
+      <c r="B142" t="s">
+        <v>345</v>
+      </c>
+      <c r="C142" t="s">
+        <v>488</v>
+      </c>
+      <c r="D142" t="s">
+        <v>489</v>
+      </c>
+      <c r="E142" t="s">
         <v>490</v>
       </c>
-      <c r="B142" t="s">
-        <v>487</v>
-      </c>
-      <c r="C142" t="s">
-        <v>491</v>
-      </c>
-      <c r="D142" t="s">
-        <v>492</v>
-      </c>
-      <c r="E142" t="s">
-        <v>291</v>
-      </c>
       <c r="F142" t="s">
         <v>29</v>
       </c>
@@ -7813,226 +7780,6 @@
         <v>0.0</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>493</v>
-      </c>
-      <c r="B143" t="s">
-        <v>487</v>
-      </c>
-      <c r="C143" t="s">
-        <v>494</v>
-      </c>
-      <c r="D143" t="s">
-        <v>495</v>
-      </c>
-      <c r="E143" t="s">
-        <v>242</v>
-      </c>
-      <c r="F143" t="s">
-        <v>29</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>496</v>
-      </c>
-      <c r="B144" t="s">
-        <v>487</v>
-      </c>
-      <c r="C144" t="s">
-        <v>497</v>
-      </c>
-      <c r="D144" t="s">
-        <v>498</v>
-      </c>
-      <c r="E144" t="s">
-        <v>209</v>
-      </c>
-      <c r="F144" t="s">
-        <v>29</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>430</v>
-      </c>
-      <c r="B145" t="s">
-        <v>487</v>
-      </c>
-      <c r="C145" t="s">
-        <v>431</v>
-      </c>
-      <c r="D145" t="s">
-        <v>432</v>
-      </c>
-      <c r="E145" t="s">
-        <v>433</v>
-      </c>
-      <c r="F145" t="s">
-        <v>29</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>499</v>
-      </c>
-      <c r="B146" t="s">
-        <v>487</v>
-      </c>
-      <c r="C146" t="s">
-        <v>500</v>
-      </c>
-      <c r="D146" t="s">
-        <v>501</v>
-      </c>
-      <c r="E146" t="s">
-        <v>129</v>
-      </c>
-      <c r="F146" t="s">
-        <v>29</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>445</v>
-      </c>
-      <c r="B147" t="s">
-        <v>487</v>
-      </c>
-      <c r="C147" t="s">
-        <v>446</v>
-      </c>
-      <c r="D147" t="s">
-        <v>447</v>
-      </c>
-      <c r="E147" t="s">
-        <v>448</v>
-      </c>
-      <c r="F147" t="s">
-        <v>29</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N147" t="n">
         <v>0.0</v>
       </c>
     </row>
